--- a/models/Multi_dimentional_data_covar/05_Arbeit_BR.xlsx
+++ b/models/Multi_dimentional_data_covar/05_Arbeit_BR.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8835"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nutzungsbestimmungen</t>
   </si>
@@ -37,6 +42,9 @@
   </si>
   <si>
     <t>25.11.2016</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -102,14 +110,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -117,23 +125,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -178,7 +186,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,16 +489,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -500,7 +508,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="4" customFormat="1">
       <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
@@ -510,7 +518,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -518,12 +526,12 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="20" customHeight="1">
       <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
@@ -533,7 +541,10 @@
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -541,10 +552,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="6">
         <v>41656</v>
       </c>
@@ -555,7 +566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="6">
         <v>41670</v>
       </c>
@@ -566,7 +577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="6">
         <v>41691</v>
       </c>
@@ -577,7 +588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="6">
         <v>41712</v>
       </c>
@@ -588,7 +599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="6">
         <v>41726</v>
       </c>
@@ -599,7 +610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="6">
         <v>41740</v>
       </c>
@@ -610,7 +621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="6">
         <v>41768</v>
       </c>
@@ -621,7 +632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>41795</v>
       </c>
@@ -632,7 +643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
@@ -643,7 +654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19" s="6">
         <v>41838</v>
       </c>
@@ -654,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" s="6">
         <v>41873</v>
       </c>
@@ -665,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="B21" s="6">
         <v>41887</v>
       </c>
@@ -676,7 +687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4">
       <c r="B22" s="6">
         <v>41908</v>
       </c>
@@ -687,7 +698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="B23" s="6">
         <v>41922</v>
       </c>
@@ -698,7 +709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="B24" s="6">
         <v>41936</v>
       </c>
@@ -709,7 +720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4">
       <c r="B25" s="6">
         <v>41957</v>
       </c>
@@ -720,7 +731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" s="6">
         <v>41971</v>
       </c>
@@ -731,7 +742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="B27" s="6">
         <v>41985</v>
       </c>
@@ -742,7 +753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="6">
         <v>42020</v>
       </c>
@@ -753,7 +764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4">
       <c r="B29" s="6">
         <v>42034</v>
       </c>
@@ -764,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4">
       <c r="B30" s="6">
         <v>42062</v>
       </c>
@@ -775,7 +786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4">
       <c r="B31" s="6">
         <v>42076</v>
       </c>
@@ -786,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4">
       <c r="B32" s="6">
         <v>42090</v>
       </c>
@@ -797,7 +808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4">
       <c r="B33" s="6">
         <v>42111</v>
       </c>
@@ -808,7 +819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4">
       <c r="B34" s="6">
         <v>42146</v>
       </c>
@@ -819,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4">
       <c r="B35" s="6">
         <v>42167</v>
       </c>
@@ -830,7 +841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4">
       <c r="B36" s="6">
         <v>42188</v>
       </c>
@@ -841,7 +852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4">
       <c r="B37" s="6">
         <v>42209</v>
       </c>
@@ -852,7 +863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4">
       <c r="B38" s="1">
         <v>42237</v>
       </c>
@@ -863,7 +874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4">
       <c r="B39" s="6">
         <v>42258</v>
       </c>
@@ -874,7 +885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4">
       <c r="B40" s="6">
         <v>42272</v>
       </c>
@@ -885,7 +896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4">
       <c r="B41" s="6">
         <v>42286</v>
       </c>
@@ -896,7 +907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4">
       <c r="B42" s="6">
         <v>42300</v>
       </c>
@@ -907,7 +918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4">
       <c r="B43" s="6">
         <v>42321</v>
       </c>
@@ -918,7 +929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4">
       <c r="B44" s="6">
         <v>42335</v>
       </c>
@@ -929,7 +940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4">
       <c r="B45" s="6">
         <v>42349</v>
       </c>
@@ -940,7 +951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4">
       <c r="B46" s="6">
         <v>42384</v>
       </c>
@@ -951,7 +962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4">
       <c r="B47" s="6">
         <v>42398</v>
       </c>
@@ -962,7 +973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4">
       <c r="B48" s="6">
         <v>42419</v>
       </c>
@@ -973,7 +984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4">
       <c r="B49" s="6">
         <v>42447</v>
       </c>
@@ -984,7 +995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4">
       <c r="B50" s="6">
         <v>42468</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4">
       <c r="B51" s="6">
         <v>42482</v>
       </c>
@@ -1006,7 +1017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4">
       <c r="B52" s="6">
         <v>42503</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4">
       <c r="B53" s="6">
         <v>42524</v>
       </c>
@@ -1028,7 +1039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4">
       <c r="B54" s="6">
         <v>42545</v>
       </c>
@@ -1039,7 +1050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4">
       <c r="B55" s="6">
         <v>42559</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4">
       <c r="B56" s="6">
         <v>42573</v>
       </c>
@@ -1061,7 +1072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" s="5" customFormat="1">
       <c r="B57" s="6">
         <v>42594</v>
       </c>
@@ -1072,7 +1083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" s="5" customFormat="1">
       <c r="B58" s="6">
         <v>42636</v>
       </c>
@@ -1083,7 +1094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4">
       <c r="B59" s="6">
         <v>42657</v>
       </c>
@@ -1094,7 +1105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4">
       <c r="B60" s="6">
         <v>42671</v>
       </c>
@@ -1105,7 +1116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4">
       <c r="B61" s="6">
         <v>42685</v>
       </c>
@@ -1116,7 +1127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:4">
       <c r="B62" s="11" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:4">
       <c r="B63" s="6">
         <v>42713</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:4">
       <c r="B64" s="6">
         <v>42748</v>
       </c>
@@ -1149,7 +1160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4">
       <c r="B65" s="6">
         <v>42762</v>
       </c>
@@ -1160,7 +1171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4">
       <c r="B66" s="1">
         <v>42783</v>
       </c>
@@ -1171,7 +1182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4">
       <c r="B67" s="6">
         <v>42804</v>
       </c>
@@ -1182,7 +1193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4">
       <c r="B68" s="6">
         <v>42832</v>
       </c>
@@ -1193,7 +1204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4">
       <c r="B69" s="6">
         <v>42853</v>
       </c>
@@ -1204,247 +1215,247 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2">
       <c r="B150" s="1"/>
     </row>
   </sheetData>
@@ -1455,8 +1466,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1466,11 +1482,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1480,10 +1501,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>